--- a/tfe2.xlsx
+++ b/tfe2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Chaude</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
